--- a/data/trans_dic/iP13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,37</t>
+          <t>3,17; 12,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 14,34</t>
+          <t>4,28; 14,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,53</t>
+          <t>0,96; 8,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,8; 21,26</t>
+          <t>5,05; 19,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,29</t>
+          <t>2,24; 9,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 12,09</t>
+          <t>2,94; 11,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,53</t>
+          <t>0,9; 9,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 18,23</t>
+          <t>4,45; 18,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 9,59</t>
+          <t>3,69; 9,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,08</t>
+          <t>4,55; 10,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,33; 7,17</t>
+          <t>1,19; 6,83</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,37; 16,49</t>
+          <t>6,42; 16,95</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,32</t>
+          <t>3,3; 6,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,03; 9,01</t>
+          <t>5,19; 9,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,47; 6,73</t>
+          <t>3,43; 6,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,92</t>
+          <t>4,12; 7,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,73</t>
+          <t>3,52; 7,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,75; 7,32</t>
+          <t>3,84; 7,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 6,75</t>
+          <t>3,63; 7,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,02</t>
+          <t>3,58; 6,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,04</t>
+          <t>3,65; 5,91</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,02; 7,69</t>
+          <t>4,95; 7,42</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,92; 6,22</t>
+          <t>3,97; 6,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,41; 6,9</t>
+          <t>4,33; 7,03</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,87; 8,81</t>
+          <t>2,94; 8,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,15</t>
+          <t>1,3; 6,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,75; 6,52</t>
+          <t>1,66; 6,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,55; 10,37</t>
+          <t>3,58; 10,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,13</t>
+          <t>1,2; 5,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,68; 8,81</t>
+          <t>2,61; 8,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,98; 10,17</t>
+          <t>3,78; 9,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 11,65</t>
+          <t>3,9; 11,44</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 5,94</t>
+          <t>2,59; 5,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,58; 6,33</t>
+          <t>2,62; 6,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,16</t>
+          <t>3,32; 7,07</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,39</t>
+          <t>4,59; 9,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 6,27</t>
+          <t>3,86; 6,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,67</t>
+          <t>4,77; 7,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 5,82</t>
+          <t>3,33; 5,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,36</t>
+          <t>5,15; 8,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,99</t>
+          <t>3,31; 5,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,02</t>
+          <t>4,32; 7,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,66</t>
+          <t>4,08; 6,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,57</t>
+          <t>4,39; 7,63</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,86; 5,71</t>
+          <t>3,88; 5,6</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,76; 6,85</t>
+          <t>4,82; 6,89</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,89; 5,82</t>
+          <t>3,99; 5,8</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,34</t>
+          <t>5,16; 7,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP13_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/iP13_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,26%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,45%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,31%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,28%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,23; 10,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,04; 12,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 9,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,91; 17,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 12,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,75; 14,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,98; 9,64</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>5,91; 20,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>3,7; 9,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>4,39; 10,89</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,57; 7,46</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>6,18; 16,44</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>5,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7,31%</t>
+          <t>6,12%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 12,4</t>
+          <t>3,45; 7,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 14,28</t>
+          <t>3,82; 7,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 8,67</t>
+          <t>3,63; 6,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 19,23</t>
+          <t>3,4; 6,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 9,89</t>
+          <t>3,16; 6,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,76</t>
+          <t>5,06; 8,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,21</t>
+          <t>3,55; 6,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,45; 18,04</t>
+          <t>4,14; 7,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 9,55</t>
+          <t>3,63; 5,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,55; 10,88</t>
+          <t>4,85; 7,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 6,83</t>
+          <t>3,93; 6,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 16,95</t>
+          <t>4,17; 6,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,52 +936,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>5,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>6,48%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>6,53%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,2</t>
+          <t>1,3; 5,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,08</t>
+          <t>2,92; 8,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,43; 6,67</t>
+          <t>4,01; 9,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,91</t>
+          <t>3,65; 10,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,19</t>
+          <t>2,92; 9,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,51</t>
+          <t>1,41; 6,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 7,01</t>
+          <t>1,9; 6,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,88</t>
+          <t>3,65; 10,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,91</t>
+          <t>2,63; 6,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,42</t>
+          <t>2,68; 6,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,97; 6,2</t>
+          <t>3,35; 7,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,33; 7,03</t>
+          <t>4,6; 9,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>5,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 8,83</t>
+          <t>3,22; 5,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,58</t>
+          <t>4,19; 7,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,46</t>
+          <t>4,03; 6,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 10,75</t>
+          <t>4,1; 7,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 5,36</t>
+          <t>3,84; 6,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,61; 8,57</t>
+          <t>4,78; 7,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 9,87</t>
+          <t>3,27; 5,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,44</t>
+          <t>5,04; 8,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,92</t>
+          <t>3,92; 5,71</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,43</t>
+          <t>4,8; 6,91</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,32; 7,07</t>
+          <t>4,04; 5,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,58</t>
+          <t>4,95; 7,14</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,0%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,47%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>5,44%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5,81%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,74%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>5,8%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>4,83%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>6,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>3,86; 6,51</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>4,77; 7,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 5,83</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>5,15; 8,38</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 5,88</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,32; 7,23</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>4,08; 6,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>4,39; 7,63</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>3,88; 5,6</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>4,82; 6,89</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>3,99; 5,8</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>5,16; 7,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
